--- a/LINQtoCSV.Excel.Tests/TestData/GoodFileNoSeparatorCharUseOutputFormatForParsingUSEnglish.xlsx
+++ b/LINQtoCSV.Excel.Tests/TestData/GoodFileNoSeparatorCharUseOutputFormatForParsingUSEnglish.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsaxena\Documents\Visual Studio 2015\Projects\LINQtoExcel\LinqToExcel.Tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kachalkov Alexander\Downloads\LINQtoCSV.Excel-master\LINQtoCSV.Excel.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
